--- a/API/MLDeployment/New_Cases_Table.xlsx
+++ b/API/MLDeployment/New_Cases_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KganoM\Desktop\Case-Management-System\API\MLDeployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B238C3A-8342-405D-A84E-D3AA3443B521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC0B016-23AB-4C3C-BFEE-13FB28D0E141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="207">
   <si>
     <t>case_ID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>notes</t>
   </si>
   <si>
-    <t>outcome</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -450,15 +447,6 @@
   </si>
   <si>
     <t>C91</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>resolved</t>
-  </si>
-  <si>
-    <t>escalated</t>
   </si>
   <si>
     <t xml:space="preserve"> Mr. William Thomas</t>
@@ -1037,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEF6C0A-EAAE-47B6-BCE4-DFBCC752DBA2}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1054,14 +1042,13 @@
     <col min="7" max="8" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,28 +1091,25 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1095</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2">
         <v>43211</v>
@@ -1137,39 +1121,36 @@
         <v>349239</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="L2">
+        <v>66</v>
       </c>
       <c r="M2">
-        <v>66</v>
-      </c>
-      <c r="N2">
         <v>0</v>
       </c>
-      <c r="O2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1688</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2">
         <v>44557</v>
@@ -1183,37 +1164,34 @@
       <c r="K3" t="s">
         <v>139</v>
       </c>
-      <c r="L3" t="s">
-        <v>143</v>
+      <c r="L3">
+        <v>62</v>
       </c>
       <c r="M3">
-        <v>62</v>
-      </c>
-      <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1565</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2">
         <v>44519</v>
@@ -1222,42 +1200,39 @@
         <v>42036.657604166663</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
         <v>141</v>
       </c>
-      <c r="L4" t="s">
-        <v>145</v>
+      <c r="L4">
+        <v>91</v>
       </c>
       <c r="M4">
-        <v>91</v>
-      </c>
-      <c r="N4">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1861</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2">
         <v>42058</v>
@@ -1269,39 +1244,36 @@
         <v>364506</v>
       </c>
       <c r="K5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L5" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>20</v>
-      </c>
-      <c r="N5">
         <v>2</v>
       </c>
-      <c r="O5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1267</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="2">
         <v>44119</v>
@@ -1313,39 +1285,36 @@
         <v>349213</v>
       </c>
       <c r="K6" t="s">
-        <v>139</v>
-      </c>
-      <c r="L6" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>42</v>
-      </c>
-      <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1174</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2">
         <v>42551</v>
@@ -1357,39 +1326,36 @@
         <v>233639</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="L7">
+        <v>65</v>
       </c>
       <c r="M7">
-        <v>65</v>
-      </c>
-      <c r="N7">
         <v>3</v>
       </c>
-      <c r="O7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1195</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="2">
         <v>45612</v>
@@ -1403,37 +1369,34 @@
       <c r="K8" t="s">
         <v>139</v>
       </c>
-      <c r="L8" t="s">
-        <v>143</v>
+      <c r="L8">
+        <v>62</v>
       </c>
       <c r="M8">
-        <v>62</v>
-      </c>
-      <c r="N8">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1549</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>155</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G9" s="2">
         <v>43290</v>
@@ -1445,39 +1408,36 @@
         <v>330958</v>
       </c>
       <c r="K9" t="s">
-        <v>140</v>
-      </c>
-      <c r="L9" t="s">
-        <v>151</v>
+        <v>147</v>
+      </c>
+      <c r="L9">
+        <v>28</v>
       </c>
       <c r="M9">
-        <v>28</v>
-      </c>
-      <c r="N9">
         <v>3</v>
       </c>
-      <c r="O9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1358</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2">
         <v>43326</v>
@@ -1486,42 +1446,39 @@
         <v>42091.384004629632</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>139</v>
-      </c>
-      <c r="L10" t="s">
-        <v>152</v>
+        <v>148</v>
+      </c>
+      <c r="L10">
+        <v>61</v>
       </c>
       <c r="M10">
-        <v>61</v>
-      </c>
-      <c r="N10">
         <v>3</v>
       </c>
-      <c r="O10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1135</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2">
         <v>42184</v>
@@ -1530,42 +1487,39 @@
         <v>42105.570798611108</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
-      </c>
-      <c r="L11" t="s">
-        <v>154</v>
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>43</v>
-      </c>
-      <c r="N11">
         <v>1</v>
       </c>
-      <c r="O11" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1892</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12" s="2">
         <v>45500</v>
@@ -1577,42 +1531,39 @@
         <v>348121</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="L12">
+        <v>64</v>
       </c>
       <c r="M12">
-        <v>64</v>
-      </c>
-      <c r="N12">
         <v>1</v>
       </c>
-      <c r="O12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2">
         <v>42851</v>
@@ -1624,39 +1575,36 @@
         <v>237789</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="L13">
+        <v>83</v>
       </c>
       <c r="M13">
-        <v>83</v>
-      </c>
-      <c r="N13">
         <v>0</v>
       </c>
-      <c r="O13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1726</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
         <v>45453</v>
@@ -1668,42 +1616,39 @@
         <v>11967</v>
       </c>
       <c r="J14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>140</v>
-      </c>
-      <c r="L14" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
       </c>
       <c r="M14">
-        <v>30</v>
-      </c>
-      <c r="N14">
         <v>3</v>
       </c>
-      <c r="O14" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1138</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2">
         <v>44981</v>
@@ -1712,42 +1657,39 @@
         <v>42180.501597222217</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="L15">
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>48</v>
-      </c>
-      <c r="N15">
         <v>0</v>
       </c>
-      <c r="O15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1803</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>281</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2">
         <v>44526</v>
@@ -1759,39 +1701,36 @@
         <v>2665</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="L16">
+        <v>82</v>
       </c>
       <c r="M16">
-        <v>82</v>
-      </c>
-      <c r="N16">
         <v>3</v>
       </c>
-      <c r="O16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1183</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>231</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2">
         <v>44934</v>
@@ -1803,39 +1742,36 @@
         <v>2694</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" t="s">
-        <v>169</v>
+        <v>165</v>
+      </c>
+      <c r="L17">
+        <v>91</v>
       </c>
       <c r="M17">
-        <v>91</v>
-      </c>
-      <c r="N17">
         <v>1</v>
       </c>
-      <c r="O17" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N17" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1258</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2">
         <v>42105</v>
@@ -1847,42 +1783,39 @@
         <v>230136</v>
       </c>
       <c r="J18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="L18">
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>31</v>
-      </c>
-      <c r="N18">
         <v>1</v>
       </c>
-      <c r="O18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1662</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>261</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G19" s="2">
         <v>42062</v>
@@ -1896,37 +1829,34 @@
       <c r="K19" t="s">
         <v>139</v>
       </c>
-      <c r="L19" t="s">
-        <v>143</v>
+      <c r="L19">
+        <v>62</v>
       </c>
       <c r="M19">
-        <v>62</v>
-      </c>
-      <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1816</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20">
         <v>236</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="2">
         <v>42538</v>
@@ -1938,39 +1868,36 @@
         <v>250643</v>
       </c>
       <c r="K20" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" t="s">
-        <v>174</v>
+        <v>170</v>
+      </c>
+      <c r="L20">
+        <v>58</v>
       </c>
       <c r="M20">
-        <v>58</v>
-      </c>
-      <c r="N20">
         <v>1</v>
       </c>
-      <c r="O20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1115</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="2">
         <v>42674</v>
@@ -1982,39 +1909,36 @@
         <v>248740</v>
       </c>
       <c r="K21" t="s">
-        <v>139</v>
-      </c>
-      <c r="L21" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="L21">
+        <v>79</v>
       </c>
       <c r="M21">
-        <v>79</v>
-      </c>
-      <c r="N21">
         <v>0</v>
       </c>
-      <c r="O21" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1035</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>248</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="2">
         <v>43243</v>
@@ -2026,39 +1950,36 @@
         <v>335097</v>
       </c>
       <c r="K22" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="L22">
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>55</v>
-      </c>
-      <c r="N22">
         <v>0</v>
       </c>
-      <c r="O22" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1543</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>107</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2">
         <v>45525</v>
@@ -2070,42 +1991,39 @@
         <v>113787</v>
       </c>
       <c r="J23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K23" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="L23">
+        <v>70</v>
       </c>
       <c r="M23">
-        <v>70</v>
-      </c>
-      <c r="N23">
         <v>2</v>
       </c>
-      <c r="O23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1207</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="2">
         <v>45657</v>
@@ -2114,42 +2032,39 @@
         <v>42452.520902777767</v>
       </c>
       <c r="I24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K24" t="s">
-        <v>139</v>
-      </c>
-      <c r="L24" t="s">
-        <v>179</v>
+        <v>175</v>
+      </c>
+      <c r="L24">
+        <v>60</v>
       </c>
       <c r="M24">
-        <v>60</v>
-      </c>
-      <c r="N24">
         <v>1</v>
       </c>
-      <c r="O24" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1473</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>210</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="2">
         <v>42981</v>
@@ -2161,39 +2076,36 @@
         <v>315096</v>
       </c>
       <c r="K25" t="s">
-        <v>139</v>
-      </c>
-      <c r="L25" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="L25">
+        <v>56</v>
       </c>
       <c r="M25">
-        <v>56</v>
-      </c>
-      <c r="N25">
         <v>3</v>
       </c>
-      <c r="O25" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1002</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="2">
         <v>45614</v>
@@ -2205,42 +2117,39 @@
         <v>383121</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K26" t="s">
-        <v>139</v>
-      </c>
-      <c r="L26" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>40</v>
-      </c>
-      <c r="N26">
         <v>0</v>
       </c>
-      <c r="O26" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1004</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G27" s="2">
         <v>42461</v>
@@ -2252,42 +2161,39 @@
         <v>17466</v>
       </c>
       <c r="J27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K27" t="s">
-        <v>140</v>
-      </c>
-      <c r="L27" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="L27">
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>29</v>
-      </c>
-      <c r="N27">
         <v>2</v>
       </c>
-      <c r="O27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1022</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G28" s="2">
         <v>43623</v>
@@ -2296,42 +2202,39 @@
         <v>42652.408900462957</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s">
-        <v>140</v>
-      </c>
-      <c r="L28" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="L28">
+        <v>56</v>
       </c>
       <c r="M28">
-        <v>56</v>
-      </c>
-      <c r="N28">
         <v>2</v>
       </c>
-      <c r="O28" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1706</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" s="2">
         <v>45641</v>
@@ -2343,39 +2246,36 @@
         <v>2689</v>
       </c>
       <c r="K29" t="s">
-        <v>139</v>
-      </c>
-      <c r="L29" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="L29">
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>40</v>
-      </c>
-      <c r="N29">
         <v>3</v>
       </c>
-      <c r="O29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1643</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G30" s="2">
         <v>45425</v>
@@ -2384,42 +2284,39 @@
         <v>42714.676504629628</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30" t="s">
-        <v>139</v>
-      </c>
-      <c r="L30" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="L30">
+        <v>80</v>
       </c>
       <c r="M30">
-        <v>80</v>
-      </c>
-      <c r="N30">
         <v>3</v>
       </c>
-      <c r="O30" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1449</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>266</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G31" s="2">
         <v>42843</v>
@@ -2431,39 +2328,36 @@
         <v>349231</v>
       </c>
       <c r="K31" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="L31">
+        <v>68</v>
       </c>
       <c r="M31">
-        <v>68</v>
-      </c>
-      <c r="N31">
         <v>1</v>
       </c>
-      <c r="O31" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1690</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="2">
         <v>43826</v>
@@ -2475,39 +2369,36 @@
         <v>349236</v>
       </c>
       <c r="K32" t="s">
-        <v>139</v>
-      </c>
-      <c r="L32" t="s">
-        <v>189</v>
+        <v>185</v>
+      </c>
+      <c r="L32">
+        <v>80</v>
       </c>
       <c r="M32">
-        <v>80</v>
-      </c>
-      <c r="N32">
         <v>2</v>
       </c>
-      <c r="O32" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N32" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1158</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33">
         <v>245</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G33" s="2">
         <v>42077</v>
@@ -2519,39 +2410,36 @@
         <v>12233</v>
       </c>
       <c r="K33" t="s">
-        <v>139</v>
-      </c>
-      <c r="L33" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="L33">
+        <v>82</v>
       </c>
       <c r="M33">
-        <v>82</v>
-      </c>
-      <c r="N33">
         <v>1</v>
       </c>
-      <c r="O33" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1445</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G34" s="2">
         <v>43609</v>
@@ -2563,39 +2451,36 @@
         <v>244361</v>
       </c>
       <c r="K34" t="s">
-        <v>139</v>
-      </c>
-      <c r="L34" t="s">
-        <v>182</v>
+        <v>178</v>
+      </c>
+      <c r="L34">
+        <v>60</v>
       </c>
       <c r="M34">
-        <v>60</v>
-      </c>
-      <c r="N34">
         <v>2</v>
       </c>
-      <c r="O34" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1122</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G35" s="2">
         <v>42697</v>
@@ -2607,39 +2492,36 @@
         <v>250655</v>
       </c>
       <c r="K35" t="s">
-        <v>140</v>
-      </c>
-      <c r="L35" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="L35">
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>36</v>
-      </c>
-      <c r="N35">
         <v>1</v>
       </c>
-      <c r="O35" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1401</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>87</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G36" s="2">
         <v>42989</v>
@@ -2651,39 +2533,36 @@
         <v>330959</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
-      </c>
-      <c r="L36" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="L36">
+        <v>64</v>
       </c>
       <c r="M36">
-        <v>64</v>
-      </c>
-      <c r="N36">
         <v>0</v>
       </c>
-      <c r="O36" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1144</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G37" s="2">
         <v>42295</v>
@@ -2695,39 +2574,36 @@
         <v>236852</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
-      </c>
-      <c r="L37" t="s">
-        <v>196</v>
+        <v>192</v>
+      </c>
+      <c r="L37">
+        <v>84</v>
       </c>
       <c r="M37">
-        <v>84</v>
-      </c>
-      <c r="N37">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1523</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>140</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G38" s="2">
         <v>45617</v>
@@ -2739,42 +2615,39 @@
         <v>11769</v>
       </c>
       <c r="J38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K38" t="s">
-        <v>140</v>
-      </c>
-      <c r="L38" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="L38">
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>60</v>
-      </c>
-      <c r="N38">
         <v>3</v>
       </c>
-      <c r="O38" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1302</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>270</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G39" s="2">
         <v>42076</v>
@@ -2786,39 +2659,36 @@
         <v>371060</v>
       </c>
       <c r="K39" t="s">
-        <v>139</v>
-      </c>
-      <c r="L39" t="s">
-        <v>187</v>
+        <v>183</v>
+      </c>
+      <c r="L39">
+        <v>33</v>
       </c>
       <c r="M39">
-        <v>33</v>
-      </c>
-      <c r="N39">
         <v>0</v>
       </c>
-      <c r="O39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1182</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C40">
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G40" s="2">
         <v>43243</v>
@@ -2830,39 +2700,36 @@
         <v>370377</v>
       </c>
       <c r="K40" t="s">
-        <v>139</v>
-      </c>
-      <c r="L40" t="s">
-        <v>156</v>
+        <v>152</v>
+      </c>
+      <c r="L40">
+        <v>35</v>
       </c>
       <c r="M40">
-        <v>35</v>
-      </c>
-      <c r="N40">
         <v>0</v>
       </c>
-      <c r="O40" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1330</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" s="2">
         <v>45589</v>
@@ -2874,39 +2741,36 @@
         <v>349245</v>
       </c>
       <c r="K41" t="s">
-        <v>141</v>
-      </c>
-      <c r="L41" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="L41">
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>37</v>
-      </c>
-      <c r="N41">
         <v>3</v>
       </c>
-      <c r="O41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1370</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C42">
         <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G42" s="2">
         <v>42589</v>
@@ -2918,42 +2782,39 @@
         <v>113803</v>
       </c>
       <c r="J42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K42" t="s">
-        <v>139</v>
-      </c>
-      <c r="L42" t="s">
-        <v>145</v>
+        <v>141</v>
+      </c>
+      <c r="L42">
+        <v>91</v>
       </c>
       <c r="M42">
-        <v>91</v>
-      </c>
-      <c r="N42">
         <v>3</v>
       </c>
-      <c r="O42" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N42" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1567</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>188</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G43" s="2">
         <v>45414</v>
@@ -2965,39 +2826,36 @@
         <v>347088</v>
       </c>
       <c r="K43" t="s">
-        <v>139</v>
-      </c>
-      <c r="L43" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="L43">
+        <v>53</v>
       </c>
       <c r="M43">
-        <v>53</v>
-      </c>
-      <c r="N43">
         <v>1</v>
       </c>
-      <c r="O43" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1317</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44">
         <v>247</v>
       </c>
       <c r="D44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G44" s="2">
         <v>44418</v>
@@ -3009,39 +2867,36 @@
         <v>250649</v>
       </c>
       <c r="K44" t="s">
-        <v>140</v>
-      </c>
-      <c r="L44" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="L44">
+        <v>39</v>
       </c>
       <c r="M44">
-        <v>39</v>
-      </c>
-      <c r="N44">
         <v>0</v>
       </c>
-      <c r="O44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1048</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45">
         <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G45" s="2">
         <v>43273</v>
@@ -3053,39 +2908,36 @@
         <v>347077</v>
       </c>
       <c r="K45" t="s">
-        <v>140</v>
-      </c>
-      <c r="L45" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="L45">
+        <v>40</v>
       </c>
       <c r="M45">
-        <v>40</v>
-      </c>
-      <c r="N45">
         <v>3</v>
       </c>
-      <c r="O45" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1265</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G46" s="2">
         <v>42066</v>
@@ -3097,42 +2949,39 @@
         <v>27267</v>
       </c>
       <c r="J46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s">
-        <v>141</v>
-      </c>
-      <c r="L46" t="s">
-        <v>193</v>
+        <v>189</v>
+      </c>
+      <c r="L46">
+        <v>60</v>
       </c>
       <c r="M46">
-        <v>60</v>
-      </c>
-      <c r="N46">
         <v>3</v>
       </c>
-      <c r="O46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1494</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47">
         <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G47" s="2">
         <v>43848</v>
@@ -3141,42 +2990,39 @@
         <v>43546.421701388892</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K47" t="s">
-        <v>139</v>
-      </c>
-      <c r="L47" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="L47">
+        <v>80</v>
       </c>
       <c r="M47">
-        <v>80</v>
-      </c>
-      <c r="N47">
         <v>3</v>
       </c>
-      <c r="O47" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1417</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G48" s="2">
         <v>42352</v>
@@ -3188,42 +3034,39 @@
         <v>112277</v>
       </c>
       <c r="J48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K48" t="s">
-        <v>141</v>
-      </c>
-      <c r="L48" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="L48">
+        <v>56</v>
       </c>
       <c r="M48">
-        <v>56</v>
-      </c>
-      <c r="N48">
         <v>2</v>
       </c>
-      <c r="O48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1773</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C49">
         <v>243</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G49" s="2">
         <v>42735</v>
@@ -3232,42 +3075,39 @@
         <v>43617.503495370373</v>
       </c>
       <c r="I49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K49" t="s">
-        <v>139</v>
-      </c>
-      <c r="L49" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="L49">
+        <v>44</v>
       </c>
       <c r="M49">
-        <v>44</v>
-      </c>
-      <c r="N49">
         <v>1</v>
       </c>
-      <c r="O49" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1040</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>255</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G50" s="2">
         <v>44993</v>
@@ -3279,39 +3119,36 @@
         <v>2691</v>
       </c>
       <c r="K50" t="s">
-        <v>139</v>
-      </c>
-      <c r="L50" t="s">
-        <v>194</v>
+        <v>190</v>
+      </c>
+      <c r="L50">
+        <v>30</v>
       </c>
       <c r="M50">
-        <v>30</v>
-      </c>
-      <c r="N50">
         <v>2</v>
       </c>
-      <c r="O50" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1537</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G51" s="2">
         <v>42934</v>
@@ -3323,39 +3160,36 @@
         <v>392091</v>
       </c>
       <c r="K51" t="s">
-        <v>140</v>
-      </c>
-      <c r="L51" t="s">
-        <v>200</v>
+        <v>196</v>
+      </c>
+      <c r="L51">
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>26</v>
-      </c>
-      <c r="N51">
         <v>3</v>
       </c>
-      <c r="O51" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N51" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1164</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>145</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G52" s="2">
         <v>45102</v>
@@ -3364,45 +3198,42 @@
         <v>43680.531898148147</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K52" t="s">
-        <v>140</v>
-      </c>
-      <c r="L52" t="s">
-        <v>181</v>
+        <v>177</v>
+      </c>
+      <c r="L52">
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>20</v>
-      </c>
-      <c r="N52">
         <v>3</v>
       </c>
-      <c r="O52" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1807</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G53" s="2">
         <v>42964</v>
@@ -3414,39 +3245,36 @@
         <v>248727</v>
       </c>
       <c r="K53" t="s">
-        <v>140</v>
-      </c>
-      <c r="L53" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="L53">
+        <v>76</v>
       </c>
       <c r="M53">
-        <v>76</v>
-      </c>
-      <c r="N53">
         <v>2</v>
       </c>
-      <c r="O53" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N53" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1180</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54">
         <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G54" s="2">
         <v>43721</v>
@@ -3458,42 +3286,39 @@
         <v>348123</v>
       </c>
       <c r="J54" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K54" t="s">
-        <v>141</v>
-      </c>
-      <c r="L54" t="s">
-        <v>191</v>
+        <v>187</v>
+      </c>
+      <c r="L54">
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>39</v>
-      </c>
-      <c r="N54">
         <v>3</v>
       </c>
-      <c r="O54" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N54" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1475</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55">
         <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G55" s="2">
         <v>45463</v>
@@ -3507,37 +3332,34 @@
       <c r="K55" t="s">
         <v>139</v>
       </c>
-      <c r="L55" t="s">
-        <v>143</v>
+      <c r="L55">
+        <v>62</v>
       </c>
       <c r="M55">
-        <v>62</v>
-      </c>
-      <c r="N55">
         <v>1</v>
       </c>
-      <c r="O55" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1559</v>
       </c>
       <c r="B56" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G56" s="2">
         <v>42758</v>
@@ -3549,39 +3371,36 @@
         <v>11668</v>
       </c>
       <c r="K56" t="s">
-        <v>139</v>
-      </c>
-      <c r="L56" t="s">
-        <v>163</v>
+        <v>159</v>
+      </c>
+      <c r="L56">
+        <v>48</v>
       </c>
       <c r="M56">
-        <v>48</v>
-      </c>
-      <c r="N56">
         <v>0</v>
       </c>
-      <c r="O56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1698</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57">
         <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G57" s="2">
         <v>44560</v>
@@ -3590,42 +3409,39 @@
         <v>44023.629305555558</v>
       </c>
       <c r="I57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K57" t="s">
-        <v>141</v>
-      </c>
-      <c r="L57" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="L57">
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>29</v>
-      </c>
-      <c r="N57">
         <v>2</v>
       </c>
-      <c r="O57" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N57" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1128</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>205</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G58" s="2">
         <v>43614</v>
@@ -3637,39 +3453,36 @@
         <v>349214</v>
       </c>
       <c r="K58" t="s">
-        <v>139</v>
-      </c>
-      <c r="L58" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="L58">
+        <v>83</v>
       </c>
       <c r="M58">
-        <v>83</v>
-      </c>
-      <c r="N58">
         <v>0</v>
       </c>
-      <c r="O58" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N58" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1029</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59">
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G59" s="2">
         <v>43631</v>
@@ -3681,39 +3494,36 @@
         <v>312992</v>
       </c>
       <c r="K59" t="s">
-        <v>139</v>
-      </c>
-      <c r="L59" t="s">
-        <v>177</v>
+        <v>173</v>
+      </c>
+      <c r="L59">
+        <v>56</v>
       </c>
       <c r="M59">
-        <v>56</v>
-      </c>
-      <c r="N59">
         <v>0</v>
       </c>
-      <c r="O59" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N59" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1453</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60">
         <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G60" s="2">
         <v>42594</v>
@@ -3722,42 +3532,39 @@
         <v>44182.521898148138</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K60" t="s">
-        <v>139</v>
-      </c>
-      <c r="L60" t="s">
-        <v>203</v>
+        <v>199</v>
+      </c>
+      <c r="L60">
+        <v>77</v>
       </c>
       <c r="M60">
-        <v>77</v>
-      </c>
-      <c r="N60">
         <v>0</v>
       </c>
-      <c r="O60" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N60" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1209</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61">
         <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G61" s="2">
         <v>42636</v>
@@ -3769,39 +3576,36 @@
         <v>113800</v>
       </c>
       <c r="K61" t="s">
-        <v>139</v>
-      </c>
-      <c r="L61" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="L61">
+        <v>53</v>
       </c>
       <c r="M61">
-        <v>53</v>
-      </c>
-      <c r="N61">
         <v>1</v>
       </c>
-      <c r="O61" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N61" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1178</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62">
         <v>217</v>
       </c>
       <c r="D62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G62" s="2">
         <v>42426</v>
@@ -3813,39 +3617,36 @@
         <v>2653</v>
       </c>
       <c r="K62" t="s">
-        <v>140</v>
-      </c>
-      <c r="L62" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+      <c r="L62">
+        <v>66</v>
       </c>
       <c r="M62">
-        <v>66</v>
-      </c>
-      <c r="N62">
         <v>0</v>
       </c>
-      <c r="O62" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N62" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1314</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63">
         <v>127</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G63" s="2">
         <v>45104</v>
@@ -3857,42 +3658,39 @@
         <v>24160</v>
       </c>
       <c r="J63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K63" t="s">
-        <v>140</v>
-      </c>
-      <c r="L63" t="s">
-        <v>201</v>
+        <v>197</v>
+      </c>
+      <c r="L63">
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>18</v>
-      </c>
-      <c r="N63">
         <v>3</v>
       </c>
-      <c r="O63" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N63" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1057</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G64" s="2">
         <v>43190</v>
@@ -3904,42 +3702,39 @@
         <v>347054</v>
       </c>
       <c r="J64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K64" t="s">
-        <v>139</v>
-      </c>
-      <c r="L64" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="L64">
+        <v>47</v>
       </c>
       <c r="M64">
-        <v>47</v>
-      </c>
-      <c r="N64">
         <v>2</v>
       </c>
-      <c r="O64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N64" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1870</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65">
         <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E65" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G65" s="2">
         <v>42861</v>
@@ -3948,45 +3743,42 @@
         <v>44436.48609953704</v>
       </c>
       <c r="I65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K65" t="s">
-        <v>140</v>
-      </c>
-      <c r="L65" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="L65">
+        <v>56</v>
       </c>
       <c r="M65">
-        <v>56</v>
-      </c>
-      <c r="N65">
         <v>2</v>
       </c>
-      <c r="O65" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N65" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1257</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66">
         <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G66" s="2">
         <v>44039</v>
@@ -3995,42 +3787,39 @@
         <v>44438.495104166657</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K66" t="s">
-        <v>139</v>
-      </c>
-      <c r="L66" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="L66">
+        <v>65</v>
       </c>
       <c r="M66">
-        <v>65</v>
-      </c>
-      <c r="N66">
         <v>3</v>
       </c>
-      <c r="O66" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1665</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C67">
         <v>59</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G67" s="2">
         <v>45305</v>
@@ -4042,42 +3831,39 @@
         <v>13213</v>
       </c>
       <c r="J67" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K67" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" t="s">
-        <v>205</v>
+        <v>201</v>
+      </c>
+      <c r="L67">
+        <v>52</v>
       </c>
       <c r="M67">
-        <v>52</v>
-      </c>
-      <c r="N67">
         <v>2</v>
       </c>
-      <c r="O67" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N67" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1258</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C68">
         <v>169</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G68" s="2">
         <v>42668</v>
@@ -4089,42 +3875,39 @@
         <v>17474</v>
       </c>
       <c r="J68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K68" t="s">
-        <v>140</v>
-      </c>
-      <c r="L68" t="s">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="L68">
+        <v>83</v>
       </c>
       <c r="M68">
-        <v>83</v>
-      </c>
-      <c r="N68">
         <v>2</v>
       </c>
-      <c r="O68" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N68" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1846</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G69" s="2">
         <v>44831</v>
@@ -4136,39 +3919,36 @@
         <v>231945</v>
       </c>
       <c r="K69" t="s">
-        <v>139</v>
-      </c>
-      <c r="L69" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+      <c r="L69">
+        <v>40</v>
       </c>
       <c r="M69">
-        <v>40</v>
-      </c>
-      <c r="N69">
         <v>0</v>
       </c>
-      <c r="O69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1128</v>
       </c>
       <c r="B70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70">
         <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G70" s="2">
         <v>42585</v>
@@ -4180,42 +3960,39 @@
         <v>13049</v>
       </c>
       <c r="J70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K70" t="s">
-        <v>139</v>
-      </c>
-      <c r="L70" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="L70">
+        <v>52</v>
       </c>
       <c r="M70">
-        <v>52</v>
-      </c>
-      <c r="N70">
         <v>1</v>
       </c>
-      <c r="O70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N70" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1660</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C71">
         <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F71" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G71" s="2">
         <v>43576</v>
@@ -4227,42 +4004,39 @@
         <v>113505</v>
       </c>
       <c r="J71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K71" t="s">
-        <v>140</v>
-      </c>
-      <c r="L71" t="s">
-        <v>170</v>
+        <v>166</v>
+      </c>
+      <c r="L71">
+        <v>34</v>
       </c>
       <c r="M71">
-        <v>34</v>
-      </c>
-      <c r="N71">
         <v>0</v>
       </c>
-      <c r="O71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N71" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1840</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C72">
         <v>45</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G72" s="2">
         <v>42992</v>
@@ -4274,39 +4048,36 @@
         <v>3474</v>
       </c>
       <c r="K72" t="s">
-        <v>139</v>
-      </c>
-      <c r="L72" t="s">
-        <v>153</v>
+        <v>149</v>
+      </c>
+      <c r="L72">
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>20</v>
-      </c>
-      <c r="N72">
         <v>3</v>
       </c>
-      <c r="O72" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N72" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1339</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73">
         <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E73" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G73" s="2">
         <v>44892</v>
@@ -4315,45 +4086,42 @@
         <v>44985.485601851848</v>
       </c>
       <c r="I73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K73" t="s">
-        <v>139</v>
-      </c>
-      <c r="L73" t="s">
-        <v>162</v>
+        <v>158</v>
+      </c>
+      <c r="L73">
+        <v>27</v>
       </c>
       <c r="M73">
-        <v>27</v>
-      </c>
-      <c r="N73">
         <v>3</v>
       </c>
-      <c r="O73" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N73" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1744</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74">
         <v>257</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G74" s="2">
         <v>43676</v>
@@ -4365,39 +4133,36 @@
         <v>237736</v>
       </c>
       <c r="K74" t="s">
-        <v>141</v>
-      </c>
-      <c r="L74" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="L74">
+        <v>50</v>
       </c>
       <c r="M74">
-        <v>50</v>
-      </c>
-      <c r="N74">
         <v>1</v>
       </c>
-      <c r="O74" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1341</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C75">
         <v>208</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G75" s="2">
         <v>43633</v>
@@ -4406,42 +4171,39 @@
         <v>45222.533101851863</v>
       </c>
       <c r="I75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K75" t="s">
-        <v>140</v>
-      </c>
-      <c r="L75" t="s">
-        <v>190</v>
+        <v>186</v>
+      </c>
+      <c r="L75">
+        <v>24</v>
       </c>
       <c r="M75">
-        <v>24</v>
-      </c>
-      <c r="N75">
         <v>2</v>
       </c>
-      <c r="O75" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1299</v>
       </c>
       <c r="B76" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C76">
         <v>266</v>
       </c>
       <c r="D76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G76" s="2">
         <v>42947</v>
@@ -4453,39 +4215,36 @@
         <v>17421</v>
       </c>
       <c r="K76" t="s">
-        <v>140</v>
-      </c>
-      <c r="L76" t="s">
-        <v>188</v>
+        <v>184</v>
+      </c>
+      <c r="L76">
+        <v>68</v>
       </c>
       <c r="M76">
-        <v>68</v>
-      </c>
-      <c r="N76">
         <v>1</v>
       </c>
-      <c r="O76" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1014</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77">
         <v>203</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G77" s="2">
         <v>43699</v>
@@ -4497,39 +4256,36 @@
         <v>330909</v>
       </c>
       <c r="K77" t="s">
-        <v>139</v>
-      </c>
-      <c r="L77" t="s">
-        <v>208</v>
+        <v>204</v>
+      </c>
+      <c r="L77">
+        <v>20</v>
       </c>
       <c r="M77">
-        <v>20</v>
-      </c>
-      <c r="N77">
         <v>2</v>
       </c>
-      <c r="O77" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N77" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1330</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78">
         <v>162</v>
       </c>
       <c r="D78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G78" s="2">
         <v>44360</v>
@@ -4538,42 +4294,39 @@
         <v>45620.490798611107</v>
       </c>
       <c r="I78" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K78" t="s">
-        <v>139</v>
-      </c>
-      <c r="L78" t="s">
-        <v>167</v>
+        <v>163</v>
+      </c>
+      <c r="L78">
+        <v>29</v>
       </c>
       <c r="M78">
-        <v>29</v>
-      </c>
-      <c r="N78">
         <v>2</v>
       </c>
-      <c r="O78" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N78" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1249</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79">
         <v>277</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G79" s="2">
         <v>43028</v>
@@ -4585,39 +4338,36 @@
         <v>323592</v>
       </c>
       <c r="K79" t="s">
-        <v>139</v>
-      </c>
-      <c r="L79" t="s">
-        <v>161</v>
+        <v>157</v>
+      </c>
+      <c r="L79">
+        <v>55</v>
       </c>
       <c r="M79">
-        <v>55</v>
-      </c>
-      <c r="N79">
         <v>3</v>
       </c>
-      <c r="O79" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N79" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1046</v>
       </c>
       <c r="B80" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C80">
         <v>251</v>
       </c>
       <c r="D80" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G80" s="2">
         <v>45476</v>
@@ -4629,39 +4379,36 @@
         <v>345572</v>
       </c>
       <c r="K80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L80" t="s">
-        <v>199</v>
+        <v>195</v>
+      </c>
+      <c r="L80">
+        <v>81</v>
       </c>
       <c r="M80">
-        <v>81</v>
-      </c>
-      <c r="N80">
         <v>0</v>
       </c>
-      <c r="O80" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1173</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81">
         <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
+        <v>98</v>
+      </c>
+      <c r="F81" t="s">
         <v>99</v>
-      </c>
-      <c r="F81" t="s">
-        <v>100</v>
       </c>
       <c r="G81" s="2">
         <v>45472</v>
@@ -4673,39 +4420,36 @@
         <v>2623</v>
       </c>
       <c r="K81" t="s">
-        <v>139</v>
-      </c>
-      <c r="L81" t="s">
-        <v>207</v>
+        <v>203</v>
+      </c>
+      <c r="L81">
+        <v>41</v>
       </c>
       <c r="M81">
-        <v>41</v>
-      </c>
-      <c r="N81">
         <v>2</v>
       </c>
-      <c r="O81" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N81" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1351</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82">
         <v>75</v>
       </c>
       <c r="D82" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G82" s="2">
         <v>45538</v>
@@ -4717,19 +4461,16 @@
         <v>2653</v>
       </c>
       <c r="K82" t="s">
-        <v>140</v>
-      </c>
-      <c r="L82" t="s">
-        <v>202</v>
+        <v>198</v>
+      </c>
+      <c r="L82">
+        <v>59</v>
       </c>
       <c r="M82">
-        <v>59</v>
-      </c>
-      <c r="N82">
         <v>1</v>
       </c>
-      <c r="O82" t="s">
-        <v>210</v>
+      <c r="N82" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
